--- a/2021-07 QLD Outbreak Paths.xlsx
+++ b/2021-07 QLD Outbreak Paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5F24C8-CB94-4FB1-912E-6392EE82AC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A19BE0-AF70-4343-8AEA-9576E8A4FBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="87">
   <si>
     <t>Source</t>
   </si>
@@ -247,10 +247,55 @@
     <t>Indooroopilly State High School</t>
   </si>
   <si>
-    <t>#ead9eb</t>
-  </si>
-  <si>
-    <t>#d6b3d7</t>
+    <t>#f0e2f0</t>
+  </si>
+  <si>
+    <t>#e0c6e1</t>
+  </si>
+  <si>
+    <t>#d0aad2</t>
+  </si>
+  <si>
+    <t>T24</t>
+  </si>
+  <si>
+    <t>T25</t>
+  </si>
+  <si>
+    <t>T26</t>
+  </si>
+  <si>
+    <t>T27</t>
+  </si>
+  <si>
+    <t>T28</t>
+  </si>
+  <si>
+    <t>T29</t>
+  </si>
+  <si>
+    <t>T17 child</t>
+  </si>
+  <si>
+    <t>T18 child</t>
+  </si>
+  <si>
+    <t>T19 child</t>
+  </si>
+  <si>
+    <t>T20 child</t>
+  </si>
+  <si>
+    <t>T21 child</t>
+  </si>
+  <si>
+    <t>T22 child</t>
+  </si>
+  <si>
+    <t>T23 child</t>
+  </si>
+  <si>
+    <t>Ironside State School Close Contact</t>
   </si>
 </sst>
 </file>
@@ -320,8 +365,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H17" totalsRowShown="0">
-  <autoFilter ref="A1:H17" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H30" totalsRowShown="0">
+  <autoFilter ref="A1:H30" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -647,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1106,6 +1151,344 @@
         <v>43</v>
       </c>
     </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1120,8 +1503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1181,18 +1564,24 @@
         <v>44409</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>44410</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>

--- a/2021-07 QLD Outbreak Paths.xlsx
+++ b/2021-07 QLD Outbreak Paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A19BE0-AF70-4343-8AEA-9576E8A4FBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1043B51-8047-457B-B106-BAD0B53ED367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="111">
   <si>
     <t>Source</t>
   </si>
@@ -247,15 +247,6 @@
     <t>Indooroopilly State High School</t>
   </si>
   <si>
-    <t>#f0e2f0</t>
-  </si>
-  <si>
-    <t>#e0c6e1</t>
-  </si>
-  <si>
-    <t>#d0aad2</t>
-  </si>
-  <si>
     <t>T24</t>
   </si>
   <si>
@@ -296,6 +287,87 @@
   </si>
   <si>
     <t>Ironside State School Close Contact</t>
+  </si>
+  <si>
+    <t>T36</t>
+  </si>
+  <si>
+    <t>T40</t>
+  </si>
+  <si>
+    <t>T41</t>
+  </si>
+  <si>
+    <t>T42</t>
+  </si>
+  <si>
+    <t>T43</t>
+  </si>
+  <si>
+    <t>T44</t>
+  </si>
+  <si>
+    <t>T45</t>
+  </si>
+  <si>
+    <t>T30 m10s</t>
+  </si>
+  <si>
+    <t>T31 m10s</t>
+  </si>
+  <si>
+    <t>T32 m10s</t>
+  </si>
+  <si>
+    <t>T33 m10s</t>
+  </si>
+  <si>
+    <t>T34 m10s</t>
+  </si>
+  <si>
+    <t>Brisbane Grammar School</t>
+  </si>
+  <si>
+    <t>Brisbane Grammar School Students</t>
+  </si>
+  <si>
+    <t>Brisbane Girls' Grammar School</t>
+  </si>
+  <si>
+    <t>T35 f10s</t>
+  </si>
+  <si>
+    <t>Brisbane Girls' Grammar School Teacher</t>
+  </si>
+  <si>
+    <t>Brisbane Girls' Grammar School Students</t>
+  </si>
+  <si>
+    <t>T37 child</t>
+  </si>
+  <si>
+    <t>T38 child</t>
+  </si>
+  <si>
+    <t>T39 child</t>
+  </si>
+  <si>
+    <t>Household Contacts</t>
+  </si>
+  <si>
+    <t>Household Contacts related to other cases</t>
+  </si>
+  <si>
+    <t>#f3e8f3</t>
+  </si>
+  <si>
+    <t>#e6d1e7</t>
+  </si>
+  <si>
+    <t>#dabadb</t>
+  </si>
+  <si>
+    <t>#cda4cf</t>
   </si>
 </sst>
 </file>
@@ -365,8 +437,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H30" totalsRowShown="0">
-  <autoFilter ref="A1:H30" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H46" totalsRowShown="0">
+  <autoFilter ref="A1:H46" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -692,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1159,7 +1231,7 @@
         <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
         <v>46</v>
@@ -1185,7 +1257,7 @@
         <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
         <v>46</v>
@@ -1211,7 +1283,7 @@
         <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
         <v>46</v>
@@ -1237,7 +1309,7 @@
         <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
         <v>46</v>
@@ -1263,7 +1335,7 @@
         <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
         <v>46</v>
@@ -1289,7 +1361,7 @@
         <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
         <v>46</v>
@@ -1315,7 +1387,7 @@
         <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D24" t="s">
         <v>46</v>
@@ -1338,10 +1410,10 @@
         <v>44410</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
         <v>46</v>
@@ -1350,7 +1422,7 @@
         <v>56</v>
       </c>
       <c r="F25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1364,10 +1436,10 @@
         <v>44410</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
         <v>46</v>
@@ -1376,7 +1448,7 @@
         <v>56</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1390,10 +1462,10 @@
         <v>44410</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
         <v>46</v>
@@ -1402,7 +1474,7 @@
         <v>56</v>
       </c>
       <c r="F27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1416,10 +1488,10 @@
         <v>44410</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
         <v>46</v>
@@ -1428,7 +1500,7 @@
         <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1442,19 +1514,19 @@
         <v>44410</v>
       </c>
       <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>83</v>
-      </c>
-      <c r="C29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" t="s">
-        <v>86</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1471,7 +1543,7 @@
         <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D30" t="s">
         <v>46</v>
@@ -1486,6 +1558,422 @@
         <v>10</v>
       </c>
       <c r="H30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>44411</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>44411</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <v>44411</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <v>44411</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
+        <v>44411</v>
+      </c>
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
+        <v>44411</v>
+      </c>
+      <c r="B36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" t="s">
+        <v>101</v>
+      </c>
+      <c r="G36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
+        <v>44411</v>
+      </c>
+      <c r="B37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
+        <v>44411</v>
+      </c>
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="1">
+        <v>44411</v>
+      </c>
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" s="1">
+        <v>44411</v>
+      </c>
+      <c r="B40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" s="1">
+        <v>44411</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" t="s">
+        <v>106</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" s="1">
+        <v>44411</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" t="s">
+        <v>106</v>
+      </c>
+      <c r="G42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>44411</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" t="s">
+        <v>106</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>44411</v>
+      </c>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" t="s">
+        <v>105</v>
+      </c>
+      <c r="F44" t="s">
+        <v>106</v>
+      </c>
+      <c r="G44" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>44411</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" t="s">
+        <v>106</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>44411</v>
+      </c>
+      <c r="B46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" t="s">
+        <v>106</v>
+      </c>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1503,9 +1991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E4:E5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1536,7 +2022,7 @@
         <v>44407</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -1550,7 +2036,7 @@
         <v>44408</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -1564,7 +2050,7 @@
         <v>44409</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1581,7 +2067,7 @@
         <v>44410</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -1596,6 +2082,9 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>44411</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
